--- a/deuChatbot/research_result/results/sem_score/sem_version_1(3500_300).xlsx
+++ b/deuChatbot/research_result/results/sem_score/sem_version_1(3500_300).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6152,61 +6152,3440 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험은 다음과 같이 구성되어 있습니다:
+1. 종목:
+   - 시각디자인
+   - 산업디자인 
+   - 공예디자인
+2. 배점 비율:
+   - 각 종목별로 700점 중 70%를 차지합니다 (즉, 총 490점)
+3. 준비물:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+4. 실기주제:
+   - 주제A와 주제B를 각각 하나씩 선택하여 연결된 주제로 만듭니다.
+   - 예시: 잠자리와 저울, 콜라병과 계절 등
+5. 화지 크기:
+   - 켄트지 3절 (약 A4 크기)
+6. 시간:
+   - 5시간
+이 시험은 학생들의 창의성과 표현 능력을 평가하기 위해 주제를 기반으로 한 자유롭고 독창적인 작업을 요구합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.7832286763191223</v>
+        <v>0.9271776676177979</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 시각디자인, 산업디자인, 공예디자인 중 택1입니다. 각 종목별로 다음과 같은 준비물, 실기주제, 화지크기 및 시간이 있습니다:
+### 준비물
+- 볼펜
+- 연필
+- 색연필
+- 수채물감 등 표현에 필요한 도구
+### 실기주제
+- 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다.
+### 화지크기
+- 켄트지3절 (시각디자인)
+- 켄트지2절 (산업디자인, 공예디자인)
+### 시간
+- 5시간
+이 정보는 디자인조형학과의 실기 종목 중 하나를 선택한 경우에 해당합니다. 다른 종목(산업디자인, 공예디자인)에서도 유사한 준비물과 화지크기를 사용하며, 주제와 시간은 동일하게 적용됩니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.7667644339799881</v>
+        <v>0.8850685954093933</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과의 모집에서 인정되는 대회들은 다음과 같습니다:
+1. 현·전 국가대표 선수
+2. 2023년도 전국대회 개인전 3위 이내 입상자 
+3. 국가대표 후보선수(주니어대표 경력 합숙훈련 3년 이상)
+   - 2023년도 전국대회 단체전 1위 입상자
+   - 2021~2022년도 전국대회 개인전 2위 이내 입상자
+4. 국가대표 후보선수(주니어대표 경력 합숙훈련 2년 이상)
+   - 2023년도 전국대회 단체전 2~3위 입상자
+   - 2023년도 전국대회 개인전 8강 입상자
+   - 2021~2022년도 전국대회 개인전 3위 입상자
+5. 국가대표 후보선수(주니어대표 경력 합숙훈련 1년 이상)
+   - 2023년도 전국대회 단체전 8강 이내 입상자
+   - 2023년도 전국대회 개인전 16강 입상자
+   - 2021~2022년도 전국대회 개인전 8강 입상자
+   - 2023년 광역시·도 대회 개인전 4강 이내 입상자
+6. 2023년도 전국대회 개인전 32강 입상자
+   - 2021~2022년도 전국대회 개인전 16강 입상자
+   - 2023년도 전국대회 단체전 16강 이내 입상자
+   - 2021~2022년도 광역시·도 대회 개인전 8강 이내 입상자
+이러한 대회들 중에서 선수의 등급이나 성적에 따라 다른 점수가 부여됩니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.5292596220970154</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에는 디자인조형학과의 기초디자인 실기시험에 대한 특정 주제들에 대한 내용이 포함되어 있지 않습니다. 표와 관련된 정보는 학생부종합전형, 수능성적, 모집단위별 모집인원 등과 같은 일반적인 입시 관련 정보만을 다루고 있습니다.
+디자인조형학과의 기초디자인 실기시험에 대한 주제나 내용은 표에서 확인할 수 없습니다. 해당 정보를 얻으려면 디자인조형학과의 공식 홈페이지, 학부모 포럼, 또는 입시 상담을 통해 직접 확인해야 합니다.
+만약 특정 대학이나 교육기관이 기초디자인 실기시험에 대한 공지나 안내서를 제공하고 있다면 그 자료를 참조하는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.8099948167800903</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>东义大学的学生部考试类型中确实考虑了出勤情况。根据表格中的信息：
+- 对于学生部考试（Na-gu），在不同学院和专业中，出勤记录占总评分的一定比例：
+  - 人文社会学部、经济商业学部：出勤记录占比12%
+  - 工程学院、ICT融合工学院：出勤记录占比18%
+- 具体来说，在学生部考试（Na-gu）中，对于不同专业和学院，出勤记录的评分比例如下：
+  ```
+  학생부교과 / 나군 학생부교과(농어촌학생전형) - 정원외 / { 100 /  0 /  0 /  0 /  0 /  0 / } /
+  학생부교과 / 나군 학生部考试（Na-gu）/学生部教科(农渔村学生型) - 正式名额外 / { 100 /  0 /  0 /  0 /  0 /  0 / } /
+  ...
+  학생부교과 / 나군 학생부종합(재직자전형) - 정원외 / { 0 /  0 /  70 /  30 /  0 /  0 / } /
+  ```
+- 出勤记录占总评分的一定比例，具体比例根据专业和学院有所不同。
+因此可以确认，在东义大学的学生部考试中确实考虑了出勤情况，并且在不同专业和学院中有不同的权重。</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>0.4420159459114075</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학 국어국문학과에서는 &lt;가&gt;군 일반학생 전형으로 9명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.6286695003509521</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.7172267436981201</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>110명입니다.
+이 정보는 다음과 같은 데이터에서 얻어졌습니다:
+---
+&lt;data&gt;
+표 제목 : 나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가 영역별 세부 평가 기준 및 내용
+아래부터는 나군 학생부종합(조기취업형계약학과전형) - 정원외 면접평가 영역별 세부 평가 기준 및 내용 표 내용이다.
+[표 속성]
+``` 단과대학 / 계열 / 모집단위 / 모집인원 ```
+[표 내용]
+```
+의료·보건·생활대학 / 자연과학 / 간호학과 - 교직 - 간호교육인증 / 110 /
+```
+---
+따라서, 의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.762656033039093</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>以下是按照英语等级对应的分数列表：
+| 等级 | 分数 |
+|------|------|
+| 1    | 139  |
+| 2    | 131  |
+| 3    | 123  |
+| 4    | 115  |
+| 5    | 107  |
+| 6    | 99   |
+| 7    | 91   |
+| 8    | 83   |
+| 9    | 75   |
+这个列表显示了韩国大学入学考试（SUN）中英语等级与对应分数之间的关系。</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.5929300785064697</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>依据提供的表格信息，艺术高中（艺术职高）的学生不能申请南国大学的農村学生学分综合（定额外）招生类型。
+具体来看，在“农学院部 农业科学系 营养食品学科 - 教育”这一行中显示为“ 지원 불가능 / 지원 불가능”，即不可申请。这表明艺术高中的学生不符合该招生类型的申请资格。
+因此，答案是不可以。</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.5655406713485718</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4등급의 제자리 멀리뛰기 여자 기록은 206~209cm이며, 이에 대한 배점은 200점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.9030787348747253</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>12%</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.3736630380153656</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>4명을 모집합니다.
+이 정보는 "가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 확인할 수 있습니다. 해당 표에 따르면 물리치료학과의 모집인원은 4명입니다.
+[표 내용]
+```
+공과대학 / 공학 / 물리치료학과 / 4 /
+```</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.6359188556671143</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 다음과 같은 일정으로 진행됩니다:
+- **일시:** 2024. 01. 17.(수)
+- **대기실 및 입실시간 안내:** 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능
+이 정보는 표 "전형일정"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>0.7716860771179199</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준은 제공된 정보에서 확인할 수 없습니다. 
+표 "전형요소 반영비율"을 보면, 응용화학과는 다음과 같이 나와 있습니다:
+- 모집군: 다군
+- 전형명: 수능(일반학생전형)
+- 모집인원: 22
+- 사정 단계: 일괄 합산
+- 전형요소 반영비율: {0 / 0 / 0 / 0 / 0 / 100 /}
+- 수능최저기준: 없음
+이 정보에서 수능 최저기준이 명시되어 있지 않으며, 해당 과정은 수능 성적을 기반으로 하지 않는 것으로 보입니다.
+따라서 정확한 수능 최저기준을 확인하려면 동의대학교 입학처 웹사이트나 관련 공문 등을 통해 확인하시거나, 직접 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>0.5579442381858826</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到东义大学2024学年新设立的学科。给出的信息主要集中在招生计划、录取标准和各专业的详细情况，但没有提及任何新的专业或课程设置变更。如果您需要了解具体的新增设的专业，请提供更具体的信息来源或者直接查询东义大学官方发布的最新招生简章以获取准确信息。</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.5228970050811768</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 : 70%
+- 면접 : 30%
+이 정보는 [나군 학생부종합(성인학습자(정원내·외)전형) 전형요소 반영비율] 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.9562543630599976</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 한의예과 수학(미적분/기하) 응시자에게 수학 취득 표준점수의 10%를 가산점으로 부여합니다.
+상세 내용은 다음과 같습니다:
+- 일반적으로는 국어, 수학, 영어, 탐구영역을 반영하는데요.
+- 하지만 한의예과의 경우:
+  - 수학(미적분/기하) 응시자에게 수학 표준점수의 10% 가산점을 부여합니다.
+이 외에는 모든 학과에서 수능 성적이 동일하게 반영되며, 가산점은 한의예과를 제외하고는 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.8485783338546753</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 수능 성적은 다음과 같이 반영됩니다:
+1. 국어, 수학, 영어 등 3개 영역이 각각 25%씩 반영됩니다.
+2. 탐구 영역은 사회탐구, 과학탐구, 직업탐구 중 선택한 2개 영역이 각각 25%씩 반영됩니다.
+3. 한의예과의 경우:
+   - 수학(미적분/기하) 응시자는 수학 부분에 대해 10% 가산점이 부여됩니다.
+   - 수학(확률과통계) 응시자는 일반적으로 반영되지만, 추가 정보는 제공되지 않았습니다.
+4. 예술디자인체육대학의 일부 모집단위에서는 탐구 영역이 각 33.33%씩 반영됩니다.
+이러한 방식으로 수능 성적을 종합적으로 평가하여 학생들의 전반적인 학업 능력을 판단합니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.8564029932022095</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 가군 실기고사 날짜는 다음과 같습니다:
+- 레저스포츠학과, 태권도학과의 실기고사는 **2024. 01. 16.(화)**입니다.
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 및 체육학과의 실기고사는 **2024. 01. 17.(수)**입니다.
+이 정보는 "전형일정" 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.856919527053833</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과를 제외한 전 모집단위가 해당됩니다.
+이 점을 요약하면:
+- 한의예과는 수학(미적분/기하) 또는 수학(확률과통계) 응시자로 구분되어 있습니다.
+- 디자인조형학과와 체육학과는 실기/실적 위주 전형에 해당합니다.
+- 경기지도학과는 실기/실적 위주 전형이며, 다른 모집단위들과 함께 나군 실기/실적(경기실적우수자전형)으로 분류됩니다.
+따라서 이들 4개의 학과는 나군 수능(일반학생전형)에서 제외된다는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.9465610980987549</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않습니다.
+이 점을 확인하기 위해 제공된 "전형요소 반영비율" 표를 살펴보면, 다군 수능(일반학생전형) 모집단위의 경우 다음과 같이 기재되어 있습니다:
+```
+다군 수능(일반학생전형) / 전 모집단위 / { 100% / } /
+```
+또한 "수능 반영영역 및 가산점" 표에서도 다군 수능에 대한 정보를 확인할 수 있으며, 여기에는 수능 최저기준이 언급되어 있지 않습니다.
+따라서, 2024학년도 동의대학교 다군 전형에서는 수능 최저기준이 적용되지 않는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.8594160676002502</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 다음과 같은 학과가 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학부(부동산투자학, 부동산개발경영학) → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악·뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)
+이 정보는 주요 변경사항 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.9812460541725159</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수 마감일은 2024년 1월 6일(토) 18시 정각입니다. 이 시간까지 인터넷 원서접수 사이트 접속이 차단되므로, 지원자는 사전에 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.9663830995559692</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1. **학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+   - 면접평가 영역별 세부 평가 기준 및 내용에 추가 정보가 포함되었습니다.
+2. **학생부종합(조기취업형계약학과전형) - 정원외**:
+   - 전형요소 반영비율이 변경되었습니다.
+   - 서류평가 영역별 세부 평가 기준이 추가되었습니다.
+   - 동점자 처리기준에 대한 추가 정보가 포함되었습니다.
+3. **실기/실적(경기실적우수자전형)**:
+   - 동점자 처리기준이 변경되었습니다.
+   - 종목별 서류심사 기준 및 점수표가 추가되었습니다.
+4. **학생부교과(농어촌학생전형) - 정원외**:
+   - 모집단위 및 모집인원이 변경되었습니다.
+   - 지원자격에 대한 추가 정보가 포함되었습니다.
+   - 제출서류와 최종등록자 추가 제출서류가 수정되었습니다.
+5. **나군 수능(일반학생전형)**:
+   - 실기/실적 모집단위 및 모집인원이 변경되었습니다.
+이러한 변화들은 각 전형의 평가 기준과 절차를 더 명확하게 하고, 공정성을 높이기 위한 조치로 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.89406418800354</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이 정보는 다음과 같은 표에서 얻을 수 있습니다:
+[가군 실기/실적(일반학생전형) / 레저스포츠학과, 태권도학과 / { 30% / 70% / }]
+따라서 가군 실기/실적 전형에서는 실기가 전체 점수 중 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.9565162658691406</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공을 포함하고 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+이 학부는 주로 평생학습자전형으로 모집되며, 해당 전형에 지원하는 학생들은 이 세부 전공들 중 하나를 선택하여 신청하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.942426860332489</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+이 두 학과만 가군에서 실기고사가 요구됩니다. 다른 학과들은 수능 위주로 전형을 진행합니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.9503066539764404</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 (신설)
+이 중에서 레저스포츠학과, 태권도학과는 가군에 해당되며, 디자인조형학과, 체육학과, 경기지도학과는 나군에 속합니다.
+실기/실적 위주 전형은 다음과 같은 학과에서 진행됩니다:
+- 레저스포츠학과: 가군
+- 태권도학과: 가군
+- 디자인조형학과, 체육학과: 나군
+- 경기지도학과 (신설): 나군
+이러한 학과들은 실기 또는 실적을 중점적으로 평가하는 전형으로 지원 가능합니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.9516798853874207</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 전공을 제공합니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학  
+- 라이프생활문화학
+즉, 라이프융합학부는 3가지 전공을 통해 학생들에게 다양한 삶의 질 향상과 관련된 지식과 기술을 교육하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.6377946138381958</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你在询问是否可以作为特殊教育高中学生申请동의大学的一般入学考试。根据提供的信息，东义大学的普通入学考试（一般学生类型）并没有明确排除特殊教育高中的毕业生。
+但是，为了确保你符合所有要求和条件，请参考以下几点：
+1. **学历资格**：你需要是高中毕业或同等学力持有者。
+2. **招生范围**：
+   - 一般学生类型通常面向普通高中、综合高中以及部分特定类型的高中（如国际高中的毕业生）。
+3. **特殊教育高中学生的具体要求**：虽然没有明确排除，但你可能需要确认以下几点：
+   - 是否有特殊的申请资格或限制条件？
+   - 学校是否有针对不同类型的高中毕业生的特别招生计划？
+建议直接访问东义大学官方网站或者联系学校的招生办公室，以获取最准确的信息和具体的申请要求。他们可以提供详细的指导，并确保你的申请符合所有规定。
+如果你已经确认了这些信息并且没有特殊限制，那么作为特殊教育高中的学生，你应该是有资格申请的。</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.2946509122848511</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 모집 인원을 확인해야 합니다. 제공된 데이터 중 "나군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원" 표에서 학과별 모집 인원을 살펴보겠습니다.
+주요 내용을 요약하면:
+- 공과대학의 모집 인원이 가장 많습니다. 특히:
+  - 건축공학과: 39명
+  - 환경공학과: 29명
+  - 바이오의약공학과: 43명
+- 상경대학에서도 많은 학과가 모집 인원을 가지고 있습니다. 예를 들어:
+  - 경영학과: 15명
+  - 회계학과: 21명
+  - 국제관광경영학과: 15명
+- 의료보건생활대학의 경우, 화학공학과와 물리치료학과가 각각 43명, 4명을 모집하고 있습니다.
+- 인문사회과학대학에서도 몇몇 학과가 많은 인원을 모집하고 있습니다. 예를 들어:
+  - 경찰행정학과: 7명
+  - 사회복지학과: 7명
+따라서, 가장 많이 모집하는 학과는 공과대학의 바이오의약공학과로 보입니다. 이 학과는 43명을 모집하고 있습니다.
+결론적으로, 2024학년도 동의대학교 나군 전형에서 가장 많은 인원을 모집하는 학과는 **바이오의약공학과**입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>0.9541072249412537</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>你在申请过程中需要注意以下几点：
+1. 特殊目的高中学生不能申请农林学生类型（농어촌학생전형）。
+2. 农林学生类型的招生对象是来自农村或偏远地区中学的毕业生，且在中学阶段至少有一方家长一直居住在这些地区。
+因此，如果你是特殊目的高中的学生，你不能通过农林学生类型进行申请。你需要查看其他适合你的申请类型，例如普通高中、自主高中等。
+你可以参考以下信息来确认你的资格：
+- 6年制课程：你在农村或偏远地区的中学完成了整个教育过程，并且在中学阶段你自己和父母双方都居住在这些地区。
+- 12年制课程：你本人在农村或偏远地区的中学完成了整个教育过程，无论你的父母是否居住在那里。
+希望这些信息对你有帮助！如果你还有其他问题，请随时提问。</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.4247734546661377</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 합격자들의 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 330.11
+- 영어 등급의 평균: 3.30
+- 수능 4개 영역 등급의 평균: 4.12
+따라서, 소프트웨어공학부 합격자들의 주요 성적 요소별 평균은 다음과 같습니다:
+1. 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 330.11
+2. 영어 등급: 3.30
+3. 수능 4개 영역 등급: 4.12</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.715567946434021</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부의 최초합격자의 성적 정보는 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 13.58
+- 영어 등급 평균: 4.07
+- 수능 4개 영역 등급 평균: 4.69
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 13.58
+따라서, 2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개)와 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 동일하게 13.58입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.7732173204421997</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>以下是关于合格者公布日程的信息：
+- 最初合格者公布：2024年2月2日（周五）14:00，在学校网站上单独查询。
+- 合格者注册：2024年2月7日至2月13日（银行营业时间结束前），在指定银行缴纳学费。* 公告：通过学校网站单独查询 * 通知单发放：从学校网站打印或在入学事务办公室领取 * 注册地点：学校指定的银行（注册通知书上注明）
+- 补充合格者第一次公布（网络）：2024年2月14日（星期三）9:00。
+- 补充合格者第一次注册（网络）：2024年2月14日（星期三）9:00至16:00。
+- 补充合格者第二次公布（网络）：2024年2月15日（星期四）9:00。
+- 补充合格者第二次注册（网络）：2024年2月15日（星期四）9:00至16:00。
+- 补充合格者第三次及以后公布（个别电话通知）：2024年2月15日（星期四）19:00至2024年2月20日（星期二）18时止。
+- 补充合格者第三次及以后注册（个别电话通知）：根据个别电话通知进行。
+所有申请者都必须在公布的截止日期内通过学校网站单独查询其合格状态。未按时确认合格状态而导致未能注册的情况，将被视为自动放弃入学资格。</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.5942107439041138</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024학년도 전형일정에 따르면, 면접고사는 다음과 같은 일정으로 진행됩니다:
+- **합격자 발표 및 등록금 납부 충원 합격자 1차 (인터넷) 발표**: 2024. 02. 14.(수) 09:00
+- **합격자 발표 및 등록금 납부 충원 합격자 1차 (인터넷) 등록**: 2024. 02. 14.(수) 09:00~16:00
+- **합격자 발표 및 등록금 납부 충원 합격자 2차 (인터넷) 발표**: 2024. 02. 15.(목) 09:00
+- **합격자 발표 및 등록금 납부 충원 합격자 2차 (인터넷) 등록**: 2024. 02. 15.(목) 09:00~16:00
+이 중에서 면접고사는 **합격자 발표 및 등록금 납부 충원 합격자 1차 (인터넷) 발표** 또는 **합격자 발표 및 등록금 납부 충원 합격자 2차 (인터넷) 발표** 이후에 이루어집니다. 
+따라서, 면접고사는 최소한 2024년 2월 14일부터 시작될 예정이며, 정확한 일시는 각각의 합격자 발표와 함께 안내됩니다.
+참고로, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 하며, 등록금 납부 기간 내에 등록해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.7822079658508301</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>依据提供的信息，韩医学科（한의예과）没有特别指出具体的最低学力标准。通常情况下，大学的最低入学要求会包括高中毕业或同等学历。对于韩医学科的具体要求可能还包括特定的科目成绩或其他专业相关的要求。
+如果需要确切的最低学力标准，建议直接参考东义大学官方网站上的最新招生简章或联系学校的招生办公室以获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>0.2736202776432037</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 정시모집에서는 각 모집단위별로 수능 최저학력 기준을 설정하고 있습니다. 그러나 구체적인 수능 최저학력 기준 점수는 제공된 정보에서 확인할 수 없습니다.
+정시모집에서 수능 최저학력기준은 다음과 같은 단과대학 및 모집단위에 따라 다르게 적용될 수 있습니다:
+1. 인문사회과학대학
+2. 상경대학
+3. 의료보건생활대학
+4. 공과대학
+5. ICT융합공과대학
+각 모집단위별로 수능 최저학력기준을 충족해야 하는 학생들이 해당 단과대학 또는 모집단위에 지원할 수 있습니다.
+만약 특정 단과대학이나 모집단위의 수능 최저학력 기준이 궁금하시다면, 동의대학교 입학처 웹사이트나 전화로 확인하시는 것이 가장 정확한 정보를 얻는 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>0.6433854103088379</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 충원합격자를 발표합니다.
+특히 주의할 점은:
+- 최초합격자 및 1차, 2차 충원합격자에게는 별도 개인 연락을 실시하지 않으므로 홈페이지를 통해 합격 여부를 반드시 확인해야 합니다.
+- 3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로 주의해야 합니다.
+따라서 이 기간 동안 합격 여부를 확인하고 필요한 조치를 취하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.8733003735542297</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024년 2월 14일(수) 09:00부터 2차 충원합격자를, 그리고 2024년 2월 15일(목) 09:00부터 3차 충원합격자를 발표합니다. 최초합격자 및 이전 차례의 충원합격자는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 조회해야 합니다.
+추가적으로, 3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격이 어려운 경우에도 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 지원자는 충원합격자 발표 기간 동안 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.8923808336257935</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>从提供的表格和信息来看，并没有直接提到“追加招生”(추가모집)的内容。但是，根据一些表中的说明可以推断出相关信息：
+1. 在“나군 학생부종합(조기취업형계약학과전형) - 정원외 동점자 처리기준”表格中提到：“상기 동점자 처리기준에도 불구하고 최저합격선에서 동점자가 발생할 경우 그 인원을 모두 합격 처리하고, 모집인원을 초과하는 인원만큼 차차년도 모집에서 감축하여 모집합니다。”
+   这句话的意思是：即使在最低录取分数线内出现同分情况，也会将所有同分者都录取，并且超出招生计划的人数将在下一年度的招生中减少。
+2. 在“나군 학生部综合(提前就业型合同学系招生) - 超额录取处理标准”表格中提到：“即使在上述同分处理标准的情况下，如果最低录取分数线内出现同分情况，将所有同分者都录取，并且超出招生计划的人数将在下一年度的招生中减少。”
+   这句话的意思是：即使按照上述同分处理标准，在最低录取分数线上出现同分时，也会将所有同分者都录取，并且超出招生计划的人数将在下一年度的招生中减少。
+虽然没有直接提到“追加招生”，但这些说明表明学校在某些情况下会调整招生人数，这可以视为一种间接的追加招生机制。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.5219480991363525</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 다음과 같은 특징을 가지고 있습니다:
+1. 모집단위와 인원:
+   - 미래융합대학 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학) : 11명
+   - 미래융합대학 부동산자산경영학부 (부동산투자학, 부동산개발경영학): 
+     - 학생부종합(평생학습자전형): 7명
+     - 학생부종합(성인학습자(정원외)전형): 23명
+2. 지원자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+3. 전형요소 반영비율:
+   - 서류: 70%
+   - 면접: 30%
+4. 제출서류 (고교 졸업(예정)자):
+   - 고교 학교생활기록부 1부
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 (선택)
+   - 외국고교 졸업(예정)자: 공증받은 외국고교 졸업(예정)증명서, 성적증명서 등
+5. 제출기간 및 장소:
+   - 2024년 1월 3일 (수) ~ 1월 12일 (금) 17:00까지 도착분
+   - (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+6. 서류평가 영역:
+   - 공동체역량
+   - 학업역량
+   - 전공적합성
+7. 면접평가 영역:
+8. 기타 유의사항:
+   - 제출서류 미제출 또는 미확인으로 인한 불이익은 지원자 본인에게 있습니다.
+   - 서류는 2024년 1월 1일 이후 발급된 것으로 제출해야 합니다.
+이러한 정보를 바탕으로 평생학습자전형에 대한 자세한 내용을 파악할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.9262919425964355</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+- 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자
+이러한 자격 요건을 충족하는 지원자가 해당 전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>0.904143750667572</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有提到实机考试（实기고사）的具体地点。通常这类信息会在学校的官方网站、招生简章或直接联系学校招生办公室获取。建议您访问东义大学的官方网站或者直接联系学校的招生办公室以获得准确的实机考试地点信息。</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.3450311124324799</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 다음과 같이 준비해야 합니다:
+1. **준비물**:
+   - 운동복 및 운동화 (스파이크, 축구화 등 특수화는 불가하며, 신발바닥에 이물질 가칠 금지)
+2. **실기종목**:
+   - 제자리 멀리뛰기
+   - 메디신볼 던지기
+   - Z-런
+3. **주의사항**:
+   - 각 실기종목 실기 시 운동복 및 운동화를 착용해야 합니다.
+   - 메디신볼 규격은 남자 3kg, 여자 2kg입니다.
+   - 당일 부상 또는 기타 사유로 기권한 자(응급환자 포함)에게는 해당 종목에 최저점수를 부여합니다.
+   - 각 실기종목별 2회 반칙자에게는 최저점수를 부여합니다.
+실기고사는 이러한 준비물을 가지고 실시해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.5138534307479858</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 지원자는 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.
+따라서, 정확히 말하면 학교 측에서 직접 전화하여 충원합격자를 통보하지는 않습니다. 하지만 지원자가 전화 두절로 인해 통보를 받지 못했을 경우, 이는 등록 포기자로 간주되므로 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.8037842512130737</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2024학년도 경찰행정학과의 수시모집 결과에 대한 정보는 제공된 데이터에서 직접 확인할 수 없습니다. 하지만, 2024학년도 모집에 대한 일반적인 정보를 요약하면:
+- 2024학년도 경찰행정학과는 7명을 모집 예정입니다.
+- 지원 인원은 총 29명이었으며, 이로 인해 경쟁률은 약 4.14:1이었습니다.
+- 최종 등록자 중 충원 합격자는 7명으로 전액 채움을 확인할 수 있습니다.
+2023학년도의 정확한 결과는 제공된 데이터에서 찾을 수 없으나, 이전 연도와 유사한 경쟁률과 모집 인원 규모를 기대할 수 있을 것으로 보입니다. 만약 2023학년도의 구체적인 결과가 필요하다면, 동의대학교 입학처 웹사이트 또는 관련 공지사항을 확인해보시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.7743212580680847</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시모집에서 일부 전형에서는 수능을 응시하지 않아도 지원이 가능합니다. 특히 실기/실적전형과 경기실적우수자전형은 수능 없이 지원할 수 있습니다.
+1. **실기/실적(일반학생전형)**: 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 실기와 실적을 기준으로 지원 가능합니다.
+2. **실기/실적(경기실적우수자전형)**: 이 전형은 경기실적을 중심으로 평가하며, 수능 없이 지원할 수 있습니다.
+그러나 대부분의 전형에서는 수능 점수가 반영되므로, 수능 응시는 유리한 입학 기회를 얻기 위해 추천됩니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>0.689398467540741</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>一般来说，高中毕业十年后申请大学的情况比较少见。不同国家和地区的具体规定可能有所不同，但通常情况下：
+1. **年龄限制**：大多数大学对学生的年龄有一定的上限要求，通常是25-30岁之间。
+2. **重新入学资格**：即使你已经高中毕业超过10年，仍然有可能通过某些途径申请大学，例如：
+   - **成人教育项目**（Adult Education Programs）或继续教育课程。
+   - **开放大学**（Open Universities）或网络课程。
+   - **特殊招生计划**，如社会服务经历、职业背景等。
+3. **具体学校政策**：不同学校的入学要求可能有所不同。建议直接联系你感兴趣的大学的招生办公室，了解具体的申请条件和流程。
+4. **准备材料**：即使可以重新申请，你也需要准备好相关的证明文件，比如高中毕业证书、工作经验证明等。
+5. **年龄因素的影响**：虽然不是绝对障碍，但年龄较大的申请人可能在竞争中处于不利地位。因此，提前规划并积极准备是非常重要的。
+建议你直接联系目标大学的招生办公室获取最准确的信息和指导。</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>0.4076988697052002</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 정시모집 일정은 다음과 같습니다:
+1. **접수 기간**: 2023년 1월 4일(화) ~ 7일(금)
+2. **접수 방법**:
+   - 온라인 접수: 대학 입학처 홈페이지를 통해 접수 가능
+   - 방문 접수: 동의대학교 입학처 방문
+3. **접수 주요 내용**:
+   - 모집단위 선택
+   - 지원 인원 및 정원 내 모집인원 확인
+   - 수능 성적 반영방법 등 기타 정보 입력
+4. **면접 일정**: 2023년 1월 18일(토) ~ 20일(월)
+5. **합격자 발표**: 2023년 1월 27일(금)
+이 일정은 일반적으로 정시모집의 기본적인 일정을 나타내며, 실제 일정은 대학 입학처 홈페이지를 통해 최종 확정된 내용과 다를 수 있으므로 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.9135475158691406</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집 일정은 다음과 같습니다:
+1. 나군 실기/실적(경기실적우수자전형) 제출서류:
+   - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분
+   - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+2. 나군 수능(일반학생전형), 실기/실적(일반학생전형):
+   - 최초합격자 발표: 2024년 1월 중
+   - 최종등록자 발표: 2024년 3월 중
+3. 나군 학생부교과(농어촌학생전형) - 정원외:
+   - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분
+   - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+4. 나군 학생부교과(농어촌학생전형) - 정원외 최종등록자 추가 제출서류:
+   - 제출기간: 2024. 02. 16.(금)까지
+   - 제출장소: 동일
+5. 나군 학생부교과(농어촌학생전형) - 정원외 동점자 처리기준 발표: 2024년 3월 중
+이 일정은 일반적으로 예정되어 있으며, 최종 확정일자는 공식 홈페이지를 통해 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.9102803468704224</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 정시 모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. 실기/실적 위주전형 (가군, 나군)
+   - 디자인조형학과, 체육학과를 제외한 전 모집단위는 수능을 100% 반영하지 않으며, 실기나 실적을 30% 반영합니다.
+2. 학생부교과 (나군)
+   - 농어촌학생전형은 수능 미응시자도 지원 가능합니다.
+   - 한의예과는 수학(미적분/기하) 응시자를 대상으로 하며, 수능 미응시자는 수학(확률과통계)을 응시한 경우와 동일하게 처리됩니다.
+3. 학생부종합 (나군)
+   - 성인학습자전형은 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자를 대상으로 하며, 수능 미응시 가능합니다.
+이러한 전형들은 수능을 필수적으로 요구하지 않거나 수능 미응시자를 포함하여 지원할 수 있는 기회를 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.6172115802764893</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2023년도 전자공학과의 충원 합격 정보는 제공된 데이터에서 확인할 수 없습니다. 현재 있는 데이터는 전반적인 모집 및 지원 경쟁률, 최종 등록자 등의 정보만을 포함하고 있습니다. 전자공학과의 충원 합격 차수에 대한 구체적인 정보를 얻기 위해서는 동일한 대학교 입시 관련 공지나 통계 자료에서 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.5793600082397461</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>提供的信息中没有直接提到东义大学入学处的电话号码。为了获取准确的联系方式，建议直接访问东义大学的官方网站或通过其官方社交媒体渠道查找最新的联系信息。通常大学官网上的“联系我们”页面会提供招生办公室或其他相关部门的联系电话和其他联系方式。</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.3160222768783569</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격이 어려운 경우, 충원합격은 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다. 따라서 지원자는 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화))에 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.9931081533432007</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 농어촌학생전형으로 지원시 제출해야 할 주요 서류는 다음과 같습니다:
+1. **고교 학교생활기록부** (1부)
+   - 학생부 온라인 제공 동의자는 이 서류를 제출하지 않아도 됩니다.
+   - 교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능합니다.
+2. **학생부종합전형 서식** (1부)
+   - 동의대학교 제공하는 전형 지원서를 작성해야 합니다.
+3. **농어촌학생 자격 증명서**
+   - 농어촌 지역에 거주하고 있는 사실을 증명할 수 있는 서류가 필요합니다.
+4. **추천서** (필수 또는 선택)
+   - 학교나 지역사회에서의 추천서를 받을 수 있습니다.
+5. **기타 관련 서류**
+   - 필요한 경우 추가로 요구될 수 있는 기타 관련 서류가 있을 수 있습니다.
+주의사항:
+- 제출된 서류는 반드시 정확하고 최신 정보를 포함해야 합니다.
+- 서류 제출 시 기한 내에 완료해야 하며, 지연으로 인해 발생하는 불이익은 지원자의 책임입니다.
+- 전형요강 및 대학 홈페이지에서 공지되는 추가 요구사항을 확인하시기 바랍니다.
+위의 내용은 일반적인 요구사항이며, 실제 서류 제출 항목과 절차는 동의대학교 입학처 웹사이트를 통해 최신 정보를 확인하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.7786964178085327</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시, 12년 과정의 경우 다음과 같은 서류를 제출해야 합니다:
+- 고교 졸업(예정)자 / 외국고교 졸업(예정)자 : 제출서류 없음 (단, 학생부 온라인 제공 동의자에 한해 학생부를 온라인으로 제공 받음)
+따라서 기본적으로 제출할 필요가 없는 서류입니다. 단, 학생부 온라인 제공 동의를 한 경우에만 학생부를 온라인으로 제공받을 수 있습니다.
+참고로 일반학생전형과 달리 농어촌학생전형은 추가적인 서류 제출이 필요하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.9279528856277466</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집 안내에서 저소득 기회균등 전형에 대한 정보는 명시되어 있지 않습니다. 
+따라서, 현재 제공된 정보로는 정시모집에서 저소득 기회균등 전형이 선발되지 않는 것으로 보입니다.
+만약 저소득 기회균등 전형이 개설될 경우 추가적인 안내가 있을 것으로 예상되지만, 현재는 해당 내용이 포함되어 있지 않습니다. 필요하다면 대학 입학처나 관련 홈페이지를 확인해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.548503041267395</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>依据您提供的信息，如果文科综合（社会）的平均分为2.5等，则会进行下舍入处理，即保留为2等。
+具体来说，在“文综(社会)”栏下的“4个科目等级平均分”中提到：“若出现2.5等及以上时,则向下取整。”这意味着2.5会被舍入到2。</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.4263740181922913</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>3차까지의 충원합격자를 발표합니다. 최초합격자부터 2차 충원합격자 발표까지 홈페이지를 통해 실시하며, 3차 이후 충원합격자는 전화 연락 두절로 인해 통보가 어려운 경우에도 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.6275213360786438</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2024년도 해당 대학의 정시 모집요강을 바탕으로 답변드리겠습니다.
+e비즈니스학과는 다군 수능(일반학생전형)에 해당하며, 그 성적 반영방법은 다음과 같습니다:
+- **수능 반영 영역**: 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+- **가산점**: 수학(미적분 또는 기하) 응시자는 수학 취득 표준점수의 10% 가산점
+이에 따라 e비즈니스학과의 수능 성적이 4.6이라면:
+1. **국어, 수학, 영어 등급점수**: 이 부분은 4.6을 기반으로 점수를 받게 됩니다.
+2. **탐구 표준점수**: 탐구 영역에서 상위 3개 과목의 표준점수를 합산한 점수를 반영합니다.
+만약 수학(미적분 또는 기하)을 응시했다면, 추가로 10% 가산점을 받게 됩니다.
+**정시 전형으로 추가합격 가능성**: 
+- **최저 합격선 확인 필요**: 정확한 최저 합격선은 해당 대학에서 공고하는 것이 일반적입니다. 따라서 최신의 모집요강이나 입학처 홈페이지를 통해 최저 합격선을 확인해야 합니다.
+- **경쟁률 및 지원자 성적 분포**: 현재 e비즈니스학과의 경쟁률과 지원자의 성적 분포도 고려해야 합니다.
+따라서, 4.6이라는 수능 점수만으로는 정확한 추가합격 가능성 판단이 어렵습니다. 최종적으로는 해당 대학에서 공고하는 최저 합격선과 지원자들의 성적 분포를 종합적으로 고려해야 합니다.
+추가 정보를 원하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.779062032699585</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要分析给定数据中的相关信息。根据提供的“2024年东义大学本科入学考试成绩（一般学生类型）首次合格者”表格内容：
+1. **e비즈니스学和**的录取情况：
+   - 招生人数：30
+   - 报名人数：89
+   - 竞争率：8.90
+   - 最终合格（候补顺序）：31
+2. **成绩要求**:
+   - 国语 + 数学 + 选修课（含加分）标准分总和 { 平均 / 标准差 } : 438.60 / 6.87
+   - 英语等级 { 平均 / 标准差 } : 3.20 / 1.24
+   - 四个科目等级 { 平均 / 标准差 } : 4.17 / 0.19
+   - 四个科目（含加分）标准分总和 { 平均 / 标准差 } : 438.60 / 6.87
+根据这些信息，e비즈니스学和的录取分数线是438.60的标准分。而等第5.3对应的大约是429左右（具体数值可能略有不同，但可以作为参考）。
+因此，如果一个学生的成绩为等第5.3，其标准分总和很可能低于438.60的录取分数线。所以，根据提供的数据来看，等第5.3的学生在e비즈니스学和中首次合格的可能性较低。
+请注意，实际录取情况可能会因具体年份、科目难度等因素有所不同，以上分析仅供参考。</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.6765342354774475</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的数据。根据您提供的表格数据，我们可以分析一下e비즈니스학과（나군）的录取情况。
+从“수능(일반학생전형) 최종등록자”表中可以看到：
+- e비즈니스학과的招生人数是10人。
+- 申请人数为89人。
+- 竞争比为8.9:1。
+- 最终录取了31名学生。
+从“수능(일반학생전형) 최초합격자”表中可以看到：
+- e비즈니스学的最终合格者平均国语+数学+选考两科（含加分）标准转换分数总和为438.60。
+- 英语等级平均值为3.20。
+- 4个科目等级平均值为4.17。
+根据这些数据，我们可以进行以下分析：
+1. **竞争比**：您的成绩与最终合格者的平均分相比，如果您的分数接近或超过438.60，并且英语等级不低于3.20，那么您有较大的可能性被录取。
+2. **具体分数要求**：虽然没有明确的分数线，但根据以往的经验和数据，通常需要达到或略高于最终合格者的平均分才能确保较高的录取概率。
+假设您的成绩为438.60左右，并且英语等级不低于3.20，那么您有较大的可能性被e비즈니스학과录取。但是，由于竞争激烈，建议您尽量提高分数以增加录取几率。
+请注意，这只是一个基于现有数据的估计，具体结果还需参考学校最终公布的分数线和录取名单。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.6240745782852173</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 국어+수학+탐구(2개) 표준변환점수는 동의대학교 간호학과의 경쟁률과 지원자들의 성적 분포를 고려할 때, 합격 가능성이 매우 낮다고 볼 수 있습니다.
+간호학과의 특징:
+1. 모집인원: 22명
+2. 지원인원: 145명
+3. 경쟁률: 6.59
+4. 충원 합격자 평균 점수: 357.63
+현재 제시된 성적(3.44)은 충원 합격자 평균점수(357.63)보다 훨씬 낮습니다. 이는 경쟁률이 매우 높고, 지원자의 성적이 상당히 높은 수준이라는 것을 의미합니다.
+추가적으로:
+- 동의대학교 간호학과는 일반학생전형으로 모집되며, 경쟁률이 6:1 이상인 경우가 많습니다.
+- 충원 합격자들의 평균 점수가 매우 높은 편입니다.
+- 표준편차도 작아서 성적이 상대적으로 일관성 있게 분포되어 있습니다.
+따라서, 현재의 성적 3.44로는 동의대학교 간호학과에 합격하기 어려울 것으로 보입니다. 그러나 최종 합격 여부는 여러 요인(면접 등)을 고려해야 하므로, 정확한 판단은 입시 전문가와 상담 후 이루어져야 합니다.
+추천 사항:
+1. 다른 대학이나 전형을 검토해보세요.
+2. 추가 수능 공부를 통해 성적을 향상시키는 것이 좋습니다.
+3. 동의대학교 간호학과에 대한 자세한 정보와 입시 조건을 확인하세요.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.8109620213508606</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에 대한 정보를 바탕으로 답변 드리겠습니다.
+간호학과는 일반학생전형에서 다음과 같은 특징을 가지고 있습니다:
+1. 정원 내 모집인원: 22명
+2. 지원 인원: 최종 등록자 145명
+3. 경쟁률: 약 6.59대 1
+최종 합격자의 수능 성적 분포를 보면, 평균 국어+수학+탐구(2개) 표준 변환 점수는 357.63점으로 매우 높습니다 (표준 편차 5.37).
+당신의 성적이 2.52라면, 이는 대략 200점대 중반에서 후반 정도를 의미합니다.
+간호학과의 최종 합격자들의 평균 점수가 357.63점으로 매우 높기 때문에, 현재의 성적은 간호학과에 충분히 경쟁력이 있는 수준이라고 볼 수는 없습니다.
+하지만 입시 결과는 여러 요인에 의해 결정되므로, 다음과 같은 방법들을 고려해보실 수 있습니다:
+1. 추가 학습 및 준비: 수능 공부를 더 열심히 하여 성적을 향상시키는 것이 가장 좋은 방법입니다.
+2. 다른 전형 시도: 학생부종합전형 등 다른 입시 방식을 고려해보세요.
+3. 대비학원 활용: 전문적인 강의와 문제를 통해 성적을 높일 수 있는 기회를 찾아보세요.
+결론적으로, 현재의 성적만으로는 간호학과에 최종 합격하기 어렵다고 판단됩니다. 하지만 추가 노력과 준비를 통해 가능성을 열어두시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.7509815692901611</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 등급평균은 간호학과 모집단위에서 경쟁률이 매우 높습니다. 간호학과는 일반적으로 높은 경쟁률을 보이는 전공 중 하나입니다.
+다음은 고려해야 할 몇 가지 요소들입니다:
+1. 최초합격자들의 성적 평균:
+   - 간호학과의 경우, 국어+수학+탐구(2개) 표준변환점수 합의 평균이 357.63으로 매우 높습니다.
+   - 영어 등급의 평균도 1.86로 상당히 높은 편입니다.
+2. 경쟁률:
+   - 간호학과의 경우, 최초합격자 지원 인원 대비 경쟁률이 6.59:1으로 매우 높습니다.
+3. 모집인원:
+   - 간호학과는 22명을 모집하므로 많은 수의 지원자가 있습니다.
+4. 전형 요소:
+   - 간호학과는 주로 학업성적, 진로계획, 인성 등 다양한 요소를 종합적으로 평가합니다.
+결론적으로, 3.7의 등급평균만으로는 매우 어려울 것으로 보입니다. 그러나 다음과 같은 경우에선 가능성이 있을 수 있습니다:
+- 다른 전형요소(면접 성적, 학교생활기록부 등)에서 우수한 점수를 받은 경우
+- 특별한 진로계획이나 경험을 가지고 있는 경우
+따라서 3.7의 등급평균만으로는 간호학과에 합격하기 어렵다고 볼 수 있습니다. 다른 전형요소들을 잘 준비하고, 지원자의 전체적인 경쟁력을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.7581542730331421</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2.58이라는 점수로 동의대학교 간호학과에 정시 전형으로 합격하기는 매우 어렵다고 볼 수 있습니다.
+이유는 다음과 같습니다:
+1. 간호학과의 경쟁률이 매우 높습니다 (37:1). 
+2. 국어+수학+탐구(2개) 표준변환점수 평균은 357.63으로, 2.58보다 훨씬 높습니다.
+3. 영어 등급 평균이 1.86이며, 2.58는 이보다 낮습니다.
+4. 수능 4개 영역 표준변환점수 합 평균은 489.72로 매우 높습니다.
+5. 간호학과의 최저학력기준 중 하나인 국어+수학+탐구(2개) 표준변환점수는 300점 이상이어야 합니다 (표에서 1등급 점수가 314.83으로 확인).
+따라서, 현재 성적은 간호학과에 합격하기 매우 어려울 것으로 보입니다. 다른 전형이나 대학을 고려해보는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.7589079737663269</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>提供的信息中没有明确说明游戏学系（Game Design and Engineering）的预录取号7是否能被录取。通常情况下，预录取（预备录取）意味着你已经被初步接受，但仍需完成一些步骤才能最终确认录取。
+建议您采取以下步骤：
+1. **查看学校官网**：访问东国大学（DEU）的官方网站，查找关于游戏学系的具体录取信息和流程。
+2. **联系招生办公室**：直接与学校的招生办公室或相关院系取得联系，询问预录取号7的具体情况以及是否可以正式确认录取。
+3. **准备所需材料**：确保你已经准备好所有需要提交的文件和材料，并按照学校的要求进行补充。
+如果还有其他具体问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.4367810487747192</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 수능 영어 등급을 나타내는 것이라 가정하겠습니다.
+동의대학교 게임공학과는 일반적으로 정시에서 수능 성적을 중점적으로 평가합니다. 수능 영어 4등급은 대략 107점 정도로 보고, 전체 수능 반영 점수 계산 방식에 따라 합격 가능성을 판단해볼 수 있습니다.
+다군(일반학생전형)의 경우 게임공학과는 공과대학 모집단위에 속합니다. 따라서 수능 성적 산출 방법은 다음과 같습니다:
+국어 + 수학 + 영어 등급점수 + 탐구
+예를 들어, 국어와 수학을 각각 100점을 받고, 탐구를 47점으로 가정하면:
+100 (국어) + 100 (수학) + 107 (영어 등급점수) + 47 (탐구) = 354
+이 점수는 동의대학교 게임공학과의 정원 내 모집인원을 초과하는 수준입니다. 따라서, 이 점수로는 합격 가능성이 매우 높습니다.
+하지만, 정확한 합격 확률은 다음과 같은 요소들에 따라 달라질 수 있습니다:
+1. 다른 지원자의 성적 분포
+2. 모집인원과 지원자 수의 비율
+3. 동점자 처리 기준
+현재로서는 4.16 영어 등급으로는 합격 가능성이 매우 높다고 판단할 수 있지만, 정확한 추가 합격 횟수를 예측하기 위해서는 더 많은 정보가 필요합니다.
+추가적으로, 게임공학과는 조기취업형 계약학과와 같은 특별전형도 운영하므로, 해당 전형을 통해 추가 합격 가능성도 고려해볼 만 합니다.</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.7544170618057251</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看经管信息学部（假设您指的是这个专业）的详细录取数据。根据提供的表格“수능(일반학생전형) 최종등록자”，我们可以获取相关信息。
+从该表中可以看到：
+- 经营信息学部 (假定为该专业) 的招生人数是 35。
+- 支持人数是 95。
+- 竞争率是 10.56。
+- 最终注册者的平均国语+数学+选修（含加分）标准分数总和是 {450.78 / 5.90}。
+根据这些信息，我们可以进行以下分析：
+1. **竞争率**：10.56 表明竞争非常激烈。
+2. **最终注册者的平均成绩**：{450.78 / 5.90} 这个分数相对较高。具体来说，国语+数学+选修（含加分）的标准转换分数总和的均值为 450.78，标准差为 5.90。
+假设您的成绩是 3.75 的标准转换分数，这相当于大约 261 分左右（因为平均分是 450.78，标准差是 5.90，3.75 大约在均值减去一个标准差的位置）。
+因此，从这个角度来看，您的成绩低于最终注册者的平均水平。但是，这并不完全决定您是否能够被录取，因为每个大学的具体录取政策可能会有所不同，并且还可能有其他因素如面试、推荐信等影响最终结果。
+建议：
+1. 仔细查看学校发布的具体录取标准和要求。
+2. 如果有可能，可以咨询学校的招生办公室获取更详细的信息。
+3. 准备充分的申请材料，包括推荐信和个人陈述等。</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.5667486190795898</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 经营信息学专业的招生人数和报名人数。
+2. 最初录取分数线（包括国语、数学、综合等科目的标准转换分数总和）。
+根据您提供的表格数据，我们可以看到以下相关信息：
+- 经营信息学专业：
+  - 招生人数：33人
+  - 报名人数：95人
+  - 竞争比为10.56:1
+- 最初录取者的国语+数学+综合（含加分）标准转换分数总和平均值为431.13，标准差为12.25。
+根据这些数据：
+1. 经营信息学专业的竞争非常激烈，竞争比达到10.56:1。
+2. 最初录取者的平均成绩为431.13分（含加分）。
+虽然您的成绩是4.2，但这个分数看起来像是某个科目的标准转换分数。我们需要将其与其他科目结合起来计算总分，并与最初录取者的分数线进行比较。
+假设您提供的4.2是指综合科目的标准转换分数，我们还需要知道其他科目的具体分数才能做出准确判断。如果您的国语和数学成绩也很好，那么总体上可能还有机会达到或超过最初的录取分数线。
+建议：
+1. 查看自己的完整成绩单。
+2. 计算总分并与最初录取者的平均分进行比较。
+3. 如果有疑问，可以咨询学校招生办公室获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.5168085098266602</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과의 경우, 수능(일반학생전형) 최종등록자 표를 보면 다음과 같은 정보가 있습니다:
+- 모집 인원: 9명
+- 지원 인원: 95명
+- 경쟁률: 10.56 (상당히 높은 경쟁률)
+- 충원 합격자 평균 수능 점수:
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 450.78
+  - 영어 등급: 2.88
+  - 수능 4개 영역 등급: 3.88
+당신의 수능 성적이 5.33이라면, 이는 평균 이상의 점수를 받은 학생들보다 높습니다. 그러나 경쟁률이 매우 높고 모집 인원이 적기 때문에, 여전히 큰 도전일 것입니다.
+결론적으로:
+1. 가능하지만 매우 어려울 것으로 예상됩니다.
+2. 다른 대학이나 전형을 함께 준비하는 것이 좋을 수 있습니다.
+3. 최종 합격 가능성은 모집인원과 지원자 수에 따라 크게 달라질 수 있으므로, 정확한 확률을 알기 위해서는 더 많은 정보가 필요합니다.
+최선의 방법은 동의대학교 경영정보학과의 입학사정관이나 대학 홈페이지를 통해 최신 정보와 추가적인 조언을 얻는 것입니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.7686895132064819</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体信息：
+1. 您提供的成绩（3.33）需要转换为标准分。通常，大学会将学生的高考分数转化为标准分进行比较。
+2. 需要知道巴油应用工程学部的具体录取分数线和标准分计算方法。
+3. 了解您申请的巴油应用工程学部在2024年招生计划中的具体情况。
+根据目前提供的信息，我们无法直接判断您的成绩是否能够被巴油应用工程学部录取。建议您：
+1. 查看巴油应用工程学部2024年的招生简章和往年录取分数线。
+2. 将您的高考分数转换为标准分进行比较。
+3. 联系东国大学的招生办公室获取更准确的信息。
+如果您能提供更多具体信息，我可以帮助进一步分析。</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.4458312392234802</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024년 동일한 상황을 고려해보겠습니다.
+방사선학과는 다음과 같은 특징을 가지고 있습니다:
+1. 모집인원: 5명
+2. 경쟁률이 매우 높습니다 (7.20)
+3. 수능 최저기준 없음
+당신의 성적(국어, 수학, 영어 등급 평균 4.4)은 방사선학과의 수능 성적 평균치(평균 5.13)보다 약간 낮습니다.
+하지만 다음과 같은 점들을 고려하면 가능성이 있습니다:
+1. 경쟁률이 높지 않아서 성적이 조금 낮더라도 합격할 수 있는 가능성은 있습니다.
+2. 다른 전형 요소(학생부, 면접 등)에서 우수한 평가를 받을 경우 점수 차이를 메울 수 있습니다.
+추천 사항:
+1. 철저히 준비: 수능 성적 외에도 학생부와 면접 등 다른 전형 요소에서도 최선을 다해야 합니다.
+2. 추가 지원: 경쟁률이 높은 만큼, 다른 대학이나 전형도 함께 고려해보세요.
+3. 정보 확인: 입학처 웹사이트나 모집요강을 통해 가장 최신의 정보를 확인하세요.
+결론적으로 성적이 약간 낮더라도, 철저한 준비와 추가 지원을 통해 합격 가능성은 있습니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.6828324794769287</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년도 방사선학과의 최초합격자들의 수능 성적 분포를 보면, 평균 경쟁률이 7.20으로 매우 높습니다. 또한, 해당 학과의 최저 합격 점수는 341.62점으로 보입니다.
+지원자의 수능 점수가 288.17점(국어 + 수학 + 탐구)으로 평균보다 약간 낮은 편이지만, 경쟁률과 최저 합격 점수를 고려할 때 위험한 수준은 아니라고 볼 수 있습니다.
+다만, 다음과 같은 요인들을 고려해야 합니다:
+1. **경쟁률**: 7.20이라는 높은 경쟁률을 감안하면, 조금 더 높은 점수를 받는 것이 좋습니다.
+2. **최저 합격 점수**: 현재 지원자의 점수가 최저 합격 점수보다 낮지 않으므로, 합격 가능성은 있지만 위험한 수준은 아닙니다.
+3. **면접 등 추가 평가 요소**: 일부 전형에서는 면접이나 서류평가 등 다른 요인이 포함될 수 있으므로, 이들을 고려해야 합니다.
+결론적으로, 현재 점수는 합격 가능성은 있지만, 조금 더 높은 점수를 받는 것이 보다 안전할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.7712328433990479</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66이라는 국어 등급은 경찰행정학과의 경우 충분히 고려될 수 있습니다. 하지만 합격 여부는 여러 요소에 따라 결정되므로 단순 등급만으로 판단하기 어렵습니다.
+경찰행정학과의 경우, 전형요소 반영비율을 보면 다음과 같습니다:
+- 학생부교과: 100%
+- 출결: 0%
+- 서류: 0%
+- 면접: 0%
+- 실기: 0%
+- 수능: 0%
+따라서, 합격 가능성은 주로 학생부 교과 성적에 따라 결정됩니다. 지원하신 농어촌 전형의 경우, 다음과 같은 점들을 고려해야 합니다:
+1. **학생부 교과성적**: 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 등 6개 주요 과목 중 석차등급 상위 8과목을 반영합니다.
+2. **석차등급**: 3.66이라는 국어 등급은 좋은 성적입니다. 다른 과목들도 비슷한 수준의 성적이면 더 좋습니다.
+3. **전체 평균성적**: 경찰행정학과는 일반적으로 중간 이상의 성적을 요구하므로, 전체 학생부 교과성적이 괜찮다면 합격 가능성은 높아집니다.
+4. **출결 및 기타 요소**: 출결 등 다른 요소가 좋지 않으면 점수만으로는 합격하기 어렵습니다.
+따라서, 지원하신 성적 3.66이 전체 학생부 교과성적에서 좋은 위치를 차지하고 있다면, 합격 가능성은 높아 보입니다. 하지만 확실한 것은 아니므로, 최종 합격 여부는 입학사정관의 심사를 통해 결정됩니다.
+추가적으로, 지원하신 전형에 대한 자세한 정보와 함께 동의대학교 입학처 웹사이트를 참조하거나, 직접 문의하시면 더 정확한 답변을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.737215518951416</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25위라는 위치에서 합격할 확률은 상당히 낮습니다. 하지만 모든 것이 불가능하지는 않습니다. 몇 가지 요인들을 고려해볼 수 있습니다:
+1. **경쟁률**: 현재 경쟁률이 매우 높기 때문에, 예비 25위도 충원될 가능성이 있지만 확률은 낮습니다.
+2. **출결 및 학업성적**: 나군 실기/실적(경기실적우수자전형)에서는 출결과 학업성적이 중요한 요소입니다. 만약 이 부분에서 우수한 점수를 받았다면, 일부 모집단위에서는 이 부분을 고려하여 합격자를 선발할 수 있습니다.
+3. **면접 성적**: 나군 실기/실적(경기실적우수자전형)에서는 면접 성적이 중요한 역할을 합니다. 만약 면접에서도 좋은 점수를 받았다면, 이 부분에서 유리해질 수 있습니다.
+4. **추가 모집 가능성**: 일부 모집단위에서는 예비 합격자를 대상으로 추가 모집이 이루어질 수 있으므로, 최종 결과는 아직 확정되지 않았습니다.
+5. **기타 요인**: 입학관리위원회의 판단이나 기타 특별한 사항 등도 합격 여부에 영향을 미칠 수 있습니다.
+결론적으로, 예비 25위에서 합격할 가능성은 매우 낮지만, 모든 것이 불가능하지는 않습니다. 최선을 다해 준비하고, 추가 모집이나 기타 기회를 노려보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.6675640344619751</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 법경찰행정학부의 정시 모집에 대해 정확한 합격 가능 점수를 예측하기는 어렵습니다. 하지만, 일반적으로 다음과 같은 요소들을 고려해볼 수 있습니다:
+1. **전반적인 경쟁률**: 동의대학교의 전반적인 경쟁률과 법경찰행정학부의 모집인원을 고려해야 합니다.
+2. **최근 입학성적 분석**:
+   - 2023년도에 해당 학부의 최초합격자들의 성적을 분석해볼 수 있습니다.
+   - 예를 들어, 2023년 법경찰행정학부의 최초합격자의 평균 점수와 경쟁률 등을 확인할 수 있습니다.
+3. **성적 분포**:
+   - 국어, 수학, 영어 등급과 탐구 과목의 성적을 고려해야 합니다.
+   - 예를 들어, 2023년 법경찰행정학부 최초합격자의 평균 점수는 다음과 같았습니다:
+     - 국어 + 수학 + 탐구(2개) (가산점 포함): 평균 185.4 / 표준 편차 6.3
+     - 영어 등급: 평균 7.0 / 표준 편차 0.9
+     - 수능 4개 영역 등급: 평균 2.9 / 표준 편차 1.5
+     - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 183.6 / 표준 편차 7.0
+4. **경쟁률**:
+   - 법경찰행정학부의 모집인원은 2명이므로, 경쟁률이 높을 것으로 예상됩니다.
+   - 예를 들어, 2023년 최초합격자 지원 인원이 150명이라면, 경쟁률은 약 75:1입니다.
+5. **안정권 점수**:
+   - 안정적으로 합격하기 위해서는 평균점수보다 조금 더 높은 성적을 받는 것이 좋습니다.
+   - 예를 들어, 위의 데이터에서 보듯이 평균 185.4 이상을 목표로 하면 안정적인 합격 가능성이 있습니다.
+6. **가산점**:
+   - 수학(미적분 또는 기하) 응시자의 경우 가산점이 적용되므로, 이 점도 고려해야 합니다.
+따라서, 2024년 동의대학교 법경찰행정학부에 정시로 들어갈려면 다음과 같은 성적을 목표로 설정하는 것이 좋습니다:
+- **국어 + 수학 + 탐구(2개) (가산점 포함)**: 평균 185.4 이상
+- **영어 등급**: 최소 7등급 이상
+- **수능 4개 영역 등급**: 평균 3등급 이상
+이러한 성적을 목표로 하면 안정적인 합격 가능성이 높아집니다. 하지만, 정확한 점수는 실제 모집인원과 지원 인원에 따라 변동될 수 있으므로, 최신 정보를 확인하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.7342829704284668</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **目标大学和专业**：东国大学保育家庭咨询学部（假设这是您指的“东义大学保育家政咨询学部”）的具体录取标准。
+2. **您的成绩**：您的数学能力测试等级为5.33。
+3. **其他因素**：虽然主要参考的是数学等第，但通常还会考虑综合评价、面试等因素。
+### 分析步骤：
+1. **查找目标专业的具体录取要求**：
+   - 请查看东国大学保育家庭咨询学部的具体招生简章或官方网站上的详细信息。
+   - 特别注意该专业对数学能力测试等级的要求，以及是否有其他附加条件（如面试、特长等）。
+2. **参考往年数据**：
+   - 查看过去几年该专业的录取分数线和学生的平均成绩分布情况。这可以帮助你了解目标分数段的大致范围。
+3. **综合评价因素**：
+   - 有些专业可能会考虑考生的综合素质，包括其他科目的成绩、特长等。
+   - 如果您在其他科目或特长方面表现优秀，可能有助于提高录取机会。
+### 建议：
+- **直接咨询学校招生办公室**：这是最准确的方法。他们可以提供最新的招生信息和具体要求。
+- **参考往年数据**：了解往年的录取情况可以帮助你更好地评估自己的竞争力。
+- **准备充分**：即使数学等第不是最高，也要确保其他方面（如面试、特长展示）做好充分准备。
+综上所述，仅凭数学能力测试等级5.33是否能被东国大学保育家庭咨询学部录取，需要进一步了解该专业的具体要求。建议您直接联系学校招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.3605118989944458</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>3차 충원합격자 발표에서는 예비 순위까지 포함되어 있습니다. 예비 12번을 받은 것은 아직 최종적으로는 합격하지 않았지만, 충원 과정에서 합격할 가능성이 있습니다.
+주요 점들은 다음과 같습니다:
+1. **3차 충원합격자 발표**: 이때까지 합격 여부를 확인해야 합니다.
+2. **예비 순위**: 예비 12번을 받은 것은 충원 과정에서 선발될 가능성이 있습니다.
+3. **전화 연락**: 충원합격자가 발표되는 기간(2024년 2월 15일 ~ 2024년 2월 20일)에 전화를 받지 않으면 합격이 취소될 수 있으므로, 이 기간 동안 꾸준히 확인해야 합니다.
+4. **등록**: 최종적으로 합격하면 지정된 등록기간 내에 등록금을 납부해야 합니다.
+따라서 현재 상태에서는 합격 가능성은 있습니다. 하지만 확실한 것은 3차 충원합격자 발표를 통해 확인할 수 있습니다. 이 기간 동안 꾸준히 학교 입학 홈페이지를 확인하고, 전화를 받지 않으면 즉시 학교에 연락해야 합니다.
+결론적으로 현재 상태에서는 합격 가능성은 있지만, 최종적인 결과는 3차 충원합격자 발표를 통해 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.8907138109207153</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 하지만 정시 모집에 지원하는 경우, 여러 요소가 고려됩니다:
+1. **모집단위와 전형 유형**: 각 학과와 모집단위별로 수능 최저학력기준이 다르므로, 해당 모집단위의 기준을 확인해야 합니다.
+2. **전형 유형**:
+   - **수능 위주 전형**: 이 경우 수능 점수가 매우 중요합니다.
+   - **학생부 종합 전형**: 학생부 성적과 면접 등 다른 요소도 고려됩니다.
+3. **유아교육학과의 특성**: 유아교육학과는 일반적으로 교육적 역량, 창의력, 인성 등을 중점적으로 평가하기 때문에 수능 점수보다 학생부 성적이 더 중요할 수 있습니다.
+4. **학생부 성적**: 4.75라는 수능 점수를 가지고 있다면, 학생부 성적도 높은 것이 좋습니다. 특히 국어, 수학, 영어 등 주요 과목의 성적이 뛰어나다면 유리할 것입니다.
+5. **면접 및 기타 평가**: 면접이나 서류평가에서도 좋은 점수를 받을 수 있도록 준비해야 합니다.
+6. **모집인원과 경쟁률**: 모집인원과 지원자의 수, 그리고 경쟁률도 중요한 요소입니다.
+따라서 4.75라는 수능 점수로 유아교육학과에 지원하는 것은 가능하지만, 학생부 성적, 면접 등 다른 평가 요소를 잘 준비해야 합니다. 특히 해당 모집단위의 수능 최저학력기준을 확인하고, 그 기준을 충족할 수 있는지 점검해 보세요.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.7531077861785889</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(아동학과)로 지원하실 경우, 환산등급 4.16을 가지고 추합까지 가는 것은 가능성이 있지만 확률은 낮습니다.
+다음은 이유와 참고사항입니다:
+1. **모집인원 및 경쟁률**: 보육가정상담학과(아동학과)의 모집인원이 적고, 일반적으로 이 학과에 대한 지원자가 많기 때문에 경쟁률이 높습니다.
+2. **수능최저기준**: 2024년 동의대학교는 수능위주 전형으로 운영되므로, 해당 학과의 수능최저기준을 확인해야 합니다. 만약 최저기준이 높다면, 환산등급 4.16만으로는 충분하지 않을 가능성이 큽니다.
+3. **추합 점수**: 추합은 수능점수와 학생부종합평가를 합산하는 방식입니다. 일반적으로 학생부종합평가는 고등학교 성적을 반영하므로, 수능성적이 높지 않다면 학생부가 중요해집니다.
+4. **학생부 평가**: 환산등급 4.16은 중간 정도의 수준이지만, 학생부에서 좋은 평가를 받는 것이 중요합니다. 특히 공동체역량과 전공적합성 등이 높게 평가받아야 합니다.
+5. **추천서 및 자기소개서**: 추천서와 자기소개서도 중요한 요소입니다. 이들에서 지원자의 적성을 잘 보여줄 수 있어야 합니다.
+6. **기타 전형**: 다른 전형(학생부종합, 실기/실적 등)으로도 지원을 고려해보는 것이 좋습니다. 특히 학생부종합에서는 환산등급이 낮더라도 좋은 평가를 받으면 합격 가능성이 있습니다.
+결론적으로, 환산등급 4.16만으로 추합까지 가는 것은 어렵다고 볼 수 있지만, 학생부에서 높은 점수를 받고 잘 준비한다면 합격 가능성은 열려있습니다. 꾸준히 준비하고, 학생부 평가에 중점을 두시는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.7011134624481201</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024학년도 입시 정보를 기준으로, 소프트웨어융합학과는 일반학생전형(가군)에서 모집되지 않습니다. 따라서 정시로 지원하는 것은 불가능합니다.
+하지만, 수능(일반학생전형)에서는 소프트웨어융합학과가 모집되었습니다. 이 경우 평균 등급을 보면:
+- 국어: 4.13
+- 수학: 5.06 
+- 탐구: 4.82
+즉, 평균적으로 국어와 수학은 4등급 이상, 탐구는 4등급 정도 받아야 합니다.
+또한, 정시 모집에서는 일반학생전형과 동일하게 수능 성적을 기준으로 합격자를 선발하므로, 이 수준의 등급을 받는 것이 필요합니다. 하지만 정확한 등급은 모집단위와 전형 방식에 따라 다르게 적용될 수 있으니, 최종적인 요구사항은 해당 대학 입학처 웹사이트를 확인하시거나 직접 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>0.5246111750602722</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>1. **면접 점수 vs 세특 내용**:
+   - 일반적으로 면접은 학생의 인성, 소통 능력 등을 평가하기 위해 진행되며, 세특(서류평가)는 학생의 학업역량과 적합성을 종합적으로 판단하기 위한 부분입니다. 따라서 두 가지 모두 중요한 역할을 하지만, 각각 다른 측면에서 합격 여부를 결정합니다.
+   - 면접 점수는 개인적인 인터뷰 성과에 따라 달라질 수 있지만, 세특 내용은 서류 자체의 질과 내용이 중요합니다.
+2. **준비해야 하는 서류**:
+   - **고교 졸업(예정)자**: 
+     - 고교 학교생활기록부 1부 (온라인 제공 동의자는 제출할 필요 없음)
+     - 경기실적증명서 1부 (대한체육회 인터넷경기실적발급시스템에서 발급, 축구의 경우 리그 실적증명서 포함하여 제출)
+   - **검정고시출신자**:
+     - 검정고시 합격증서 사본 또는 합격증명서 1부
+     - 검정고시 성적증명서 1부
+     - 학교생활기록부 대체 서류 (선택 제출)
+   - **외국고교 졸업(예정)자**:
+     - 공증받은 외국고교 졸업(예정)증명서 1부
+     - 공증받은 외국고교 성적증명서 1부
+     - 학교생활기록부 대체 서류 (선택 제출)
+   - **4대 보험 가입자**:
+     - 건강보험자격득실확인서 (국민건강보험공단 발급)
+     - 국민연금가입증명서 (국민연금공단 발급)
+     - 고용보험자격이력내역서 (고용·산재보험 토탈서비스 발급), 재직(경력)증명서
+   - **4대 보험 미가입자**:
+     - 사업자등록증명원 또는 폐업사실증명원 (국세청 홈텍스 발급)
+     - 소득금액증명원 (국세청 홈텍스 발급), 재직(경력)증명서
+   - **농업, 수산업 등의 1차 산업체 종사자**:
+     - 국가·지방자치단체가 발급하는 공적증명서 (농림지원부 등 발행)
+   - **군 경력자**:
+     - 주민등록초본 (주민등록번호 전체가 기재된 서류 발급하여 제출)
+3. **추가 유의사항**:
+   - 모든 서류는 2024년 1월 1일 이후에 발급된 서류에 한하며, 발급 방법은 '29페이지 [인터넷 발급서류 안내]'를 참조해야 합니다.
+   - 서류 제출 여부는 홈페이지에서 확인 가능하며, 반드시 본인의 서류제출 여부를 확인해야 합니다. 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.
+따라서, 세특 내용을 잘 준비하고, 필요한 서류들을 정확하게 제출하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.4656333029270172</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부의 경우, 수능 최소 경쟁률이 약 4.87입니다 (표에서 확인 가능). 따라서 평균적인 경쟁률을 고려하면, 성적이 4.08인 경우 최초합격자로 선발될 확률은 상대적으로 낮습니다.
+하지만 정확한 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **모집 인원과 지원 인원**: 모집 인원이 많고 지원 인원이 적다면 경쟁률이 낮아질 수 있습니다.
+2. **성적 분포**: 표에서 보이는 성적 평균과 편차를 확인하여, 4.08이 상위권에 위치하는지 판단해야 합니다.
+3. **기타 요인**: 영어 등급, 수능 4개 영역 등급 등의 점수도 중요한 역할을 합니다.
+현재 정보로는 성적이 약간 낮은 편이므로 최초합격자로 선발될 가능성은 낮지만, 경쟁률과 지원 인원 등을 고려하면 여전히 가능성이 있습니다. 
+추가적으로, 동의대학교 입학 홈페이지나 학교 관계자에게 직접 문의하여 가장 정확한 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.8800697326660156</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看相关表格中的信息。根据提供的表格内容，“수능 반영영역 및 가산점” 表格显示：
+- 对于“소프트웨어융합학과”，其反应该科目为：
+  - 국어(화법과작문 또는 언어와매체) 25%
+  - 수학(확률과통계 또는 미적분 또는 기하) 25%
+  - 영어 25%
+  - 탐구(사회탐구 또는 과학탐구 또는직업탐구 - 2개 과목 합) 25%
+- 加权分数计算方法为：国语（25%）+ 数学（25%）+ 英语（25%）+ 研究（25%）
+假设一个学生在这些科目中的等级分别为：
+- 国语: 5
+- 数学: 5
+- 英语: 5
+- 社会/科学 (研究): 5
+我们可以计算这个学生的总分：
+\[ \text{总分} = 0.25 \times 5 + 0.25 \times 5 + 0.25 \times 5 + 0.25 \times 5 = 1.25 + 1.25 + 1.25 + 1.25 = 5 \]
+因此，如果一个学生在所有科目中都获得了5等，则其总分为5。这意味着理论上是有可能达到平均5等的。
+但是需要注意的是，实际录取时还会考虑其他因素如面试、实操成绩（对于某些专业）以及学校的具体要求和政策。所以虽然从分数计算上来看是可以的，但在实际情况中还需要综合考量其他方面的情况。</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.6354270577430725</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 입학할 확률은 상당히 낮습니다.
+이유는 다음과 같습니다:
+1. 모집 인원: 신소재공학과는 56명을 모집하고 있습니다.
+2. 지원 인원: 81명이 지원했습니다.
+3. 경쟁률: 1.45대 1로 매우 높습니다.
+4. 최종 등록자 성적 평균:
+   - 국어 + 수학 + 탐구(가산점 포함) 표준 변환 점수 합은 399.26입니다.
+   - 이는 4.28보다 훨씬 높습니다.
+5. 최초 합격자 성적 평균:
+   - 국어 + 수학 + 탐구(가산점 포함) 표준 변환 점수 합은 391.06입니다.
+   - 이 역시 4.28보다 높습니다.
+따라서, 현재의 성적을 가지고는 신소재공학과에 입학하기 어려울 것으로 보입니다. 하지만 다음과 같은 방법들을 고려해볼 수 있습니다:
+- 다른 학과를 지원해보기
+- 추가 공부와 준비로 성적을 향상시키기 
+- 대입 면접 등에서 좋은 인상을 주어 선발 가능성 높이기
+결론적으로, 현재의 성적이 낮아서 입학하기 어려울 것으로 보입니다. 다른 방법들을 통해 목표를 달성해보는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.7587293982505798</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 수능 일반학생전형에서는 자기소개서를 제출해야 합니다. 그러나 자세한 내용은 다음과 같습니다:
+1. **가군 (일반학생전형)**:
+   - **레저스포츠학과, 태권도학과** 외에는 자기소개서는 필요하지 않습니다.
+2. **나군 (일반학생전형)**:
+   - 모든 모집단위에서 자기소개서가 필요합니다.
+3. **다군 (일반학생전형)**:
+   - 자기소개서는 필요하지 않습니다.
+따라서, 레저스포츠학과와 태권도학과를 제외한 나머지 학과에서는 반드시 자기소개서를 작성하여 제출해야 합니다. 자세한 내용은 동의대학교 입학처 홈페이지나 전형 안내서를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>0.684299647808075</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 등급점수로 보이므로, 이를 반영하여 학생의 전형별 성적을 살펴보겠습니다.
+1. **가군 수능(일반학생전형)**:
+   - 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - 4등급은 대략 90-100점대의 점수가 됩니다.
+   - 가군에서는 수능 성적이 100% 반영되므로, 이 점수로는 합격 가능성이 낮습니다. 최저합격선을 넘어야 합니다.
+2. **나군 수능(일반학생전형)**:
+   - 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - 4등급은 대략 90-100점대의 점수가 됩니다.
+   - 나군에서도 수능 성적이 100% 반영되므로, 이 점수로는 합격 가능성이 낮습니다. 최저합격선을 넘어야 합니다.
+3. **다군 수능(일반학생전형)**:
+   - 국어 + 수학 + 영어 등급점수 + 탐구 표준점수
+   - 4등급은 대략 90-100점대의 점수가 됩니다.
+   - 다군에서도 수능 성적이 100% 반영되므로, 이 점수로는 합격 가능성이 낮습니다. 최저합격선을 넘어야 합니다.
+**추가모집 가능성**:
+- 추가모집에서는 일반적으로 모집인원이 늘어나거나 기준이 조금 더 유연해질 수 있지만, 4등급의 등급점수로는 여전히 낮은 점수입니다.
+- 각 학과별 최저합격선을 확인해야 합니다. 만약 최저합격선이 높다면, 추가모집에서도 합격하기 어렵습니다.
+**추천사항**:
+1. **다른 전형(학생부종합 등) 응시**: 수능 성적이 낮은 경우 다른 전형을 고려해 볼 필요가 있습니다.
+2. **재수 시도**: 수능 점수가 높아질 가능성이 있다면, 재수를 고려해볼 수도 있습니다.
+3. **추가모집 정보 확인**: 추가모집의 모집인원과 기준을 꼭 확인하여 합격 가능성 여부를 판단해야 합니다.
+결론적으로 4등급의 등급점수로는 일반적으로 낮은 점수이므로, 추가모집에서도 합격하기 어렵다고 볼 수 있습니다. 다른 전형이나 재수를 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.8826772570610046</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 신소재공학과의 정시 합격 기준을 직접적으로 확인하기 어렵습니다. 하지만 수능(일반학생전형) 모집단위별 전형요소 반영비율 표를 참조하면, 신소재공학과와 분자나노공학과는 같은 모집단위로 분류되어 있습니다.
+신소재공학과와 분자나노공학과의 경우 다음과 같이 정보가 제공됩니다:
+- 모집인원: 56명
+- 지원 인원: 81명 
+- 경쟁률: 1.45대 1
+수능 반영 영역 및 가산점:
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 286.97
+영어 등급 평균: 4.33
+수능 4개 영역 등급 평균: 5.32
+수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 399.26
+이 정보만으로는 정확한 등급 기준을 알 수 없지만, 경쟁률과 평균 점수가 고려되면 대략적인 추정치를 내릴 수 있습니다.
+일반적으로 경쟁률이 1대 1 미만인 경우, 상위 등급 학생들이 많이 지원할 가능성이 높습니다. 따라서 신소재공학과의 경우 대략 400점 이상의 표준 변환 점수와 4등급 이상의 영어 등급이 필요할 것으로 예상됩니다.
+정확한 기준을 알고 싶다면, 동의대학교 입학처 웹사이트나 학교 관계자에게 직접 문의하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.7284010052680969</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 정시에서 신소재공학과의 최종 평균 점수가 작년에 비해 약간 높아졌다면, 이는 가능성이 있으나 매우 낮습니다. 일반적으로 대학별 합격선은 여러 요인에 따라 변동이 있을 수 있지만, 큰 폭으로 변하는 것은 드뭅니다.
+다음은 고려해야 할 몇 가지 포인트입니다:
+1. **입시 경쟁도**: 작년과 올해의 입시 경쟁도가 크게 다르지 않았다면, 합격선이 큰 차이를 보이기는 어렵습니다.
+2. **모집 인원 및 지원자 수**: 모집 인원이나 지원자 수가 변동되었을 경우, 합격선에 영향을 줄 수 있습니다.
+3. **면접 결과**: 면접 점수가 작년보다 높아졌다면, 이는 전체 평균 점수를 끌어올릴 수 있습니다.
+4. **전형별 변동**: 다른 전형(예: 조기취업형 계약학과 등)의 합격률 변화가 있을 수도 있습니다.
+5. **학교 정책 및 전략**: 대학 자체의 입시 정책이나 전략 변경이 있을 수 있습니다.
+하지만, 작년에 비해 1점 정도 차이는 매우 미세한 변동으로 보입니다. 이는 실수나 오차로 인한 것일 가능성이 높습니다. 따라서, 447점으로 최종 평균을 넘어서 합격할 가능성은 낮다고 볼 수 있습니다.
+만약 확실성을 원하신다면, 동의대학교 입학처에 직접 문의하거나, 최근 입시 관련 자료를 확인하는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.6902918815612793</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.3등급대의 성적이면 동의대학교에서 신소재공학과의 경우 경쟁률이 상당히 높습니다. 현재 표에 있는 데이터를 보면 신소재공학과는 다음과 같은 특징이 있습니다:
+1. **모집인원**: 56명
+2. **지원인원**: 81명
+3. **경쟁률**: 약 1.45:1 (약 1.5배)
+현재의 성적(4.3등급대)으로는 경쟁률이 높아서 합격하기 어렵다고 볼 수 있습니다. 하지만 정확한 확률을 예측하는 것은 어렵습니다:
+- **경쟁률**: 현재 표시된 데이터를 보면 1.5배 정도의 경쟁률입니다.
+- **성적 평균**: 신소재공학과의 성적 평균은 약 4.32등급으로, 지원자의 성적이 이보다 높지 않다면 낮은 확률로 합격할 수 있습니다.
+**추천 사항:**
+1. **성적 향상**: 현재 성적을 최대한 향상시키는 것이 중요합니다. 추가 공부나 강의를 통해 성적이 더 좋아질 수 있도록 노력해보세요.
+2. **다양한 대안 찾기**: 다른 대학이나 전형(예: 실기/실적, 특성화고 등)을 고려해볼 수도 있습니다.
+3. **추천서 및 자기소개서 작성**: 이 부분이 성적이 조금 부족할 때는 강점과 열정을 잘 표현하는 것이 중요합니다.
+결론적으로 현재의 성적만으로 신소재공학과에 합격하기는 어렵지만, 최선을 다해 노력한다면 다른 전형이나 더 낮은 경쟁률의 대학에서는 좋은 결과를 얻을 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.7983028292655945</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 인공지능학과 수능(일반학생전형)에 대한 최초합격자들의 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 453.83, 표준 편차 6.66
+- 영어 등급: 평균 2.75, 표준 편차 0.72
+- 수능 4개 영역 등급: 평균 4.07, 표준 편차 0.26
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 453.83, 표준 편차 6.66
+이 성적을 참고하시면 도움이 될 것 같습니다. 하지만 이는 단일 전형의 결과이며, 최종 등록자와 최초합격자의 성적이 다를 수 있으므로, 최종 등록자들의 성적을 확인하는 것이 더 정확할 것입니다.
+최종 등록자들의 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 301.87, 표준 편차 12.38
+- 영어 등급: 평균 4.13, 표준 편차 0.71
+- 수능 4개 영역 등급: 평균 4.98, 표준 편차 0.25
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 415.80, 표준 편차 10.49
+이러한 성적을 참고하여 자신의 실력을 평가하고 준비하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.8187593221664429</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수는 수능 표준점수로 보이는데, 동의대학교의 정시 모집에서는 수능성적이 중요한 평가 요소 중 하나입니다. 그러나 정확한 합격 가능성 판단을 위해서는 몇 가지 추가 정보가 필요합니다:
+1. 모집단위: 어떤 단과대학과 계열에 지원하려고 하는지 확인해야 합니다.
+2. 전형 유형: 가군(일반학생전형)인지, 나군(학생부종합전형)인지 등을 파악해야 합니다.
+3. 수능 최저기준: 해당 모집단위의 수능 최저기준을 확인해야 합니다.
+4. 다른 평가 요소: 학생부 교과성적, 면접 등 다른 평가 요소도 고려됩니다.
+5. 경쟁률: 현재의 경쟁률 상태를 파악하면 더 정확한 판단이 가능합니다.
+일반적으로 5.27이라는 점수는 좋은 성적이지만, 최저기준과 모집단위에 따라 합격 가능성은 달라질 수 있습니다. 예를 들어:
+- 가군(일반학생전형)의 경우, 많은 단과대학에서 수능 최저기준이 낮아 5.27으로는 충분히 추합 가능성이 있습니다.
+- 나군(학생부종합전형)의 경우, 수능성적만으로는 합격하기 어렵고 다른 평가 요소도 중요합니다.
+따라서 정확한 답변을 위해서는 위에 언급된 추가 정보가 필요합니다. 해당 정보를 기반으로 전문가와 상담하거나 입학 홈페이지를 통해 최신 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.7187479734420776</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 경쟁률은 매우 높습니다. 동의대학교 소프트웨어공학부는 일반적으로 높은 경쟁률을 보입니다.
+이 표에서 소프트웨어공학부 관련 정보를 확인해보겠습니다:
+1. **최초합격자**:
+   - 모집 인원: 30명
+   - 지원 인원: 146명
+   - 경쟁률: 4.87
+2. **최종등록자**:
+   - 모집 인원: 30명
+   - 지원 인원: 146명
+   - 경쟁률: 4.87
+이 두 표에서 모두 동일한 경쟁률인 4.87을 보입니다. 이는 매우 높은 수준의 경쟁력을 의미합니다.
+4.2라는 경쟁률은 대략 5.0 이상의 경쟁률을 가진 모집단위와 비슷하거나 약간 낮습니다. 그러나 동의대학교 소프트웨어공학부의 경우, 4.87이라는 높은 경쟁률을 보여주므로, 4.2는 합격 가능성은 매우 낮다고 볼 수 있습니다.
+결론적으로, 현재의 성적로는 이 대학의 소프트웨어공학부에 합격하기가 어렵다고 판단됩니다. 다른 대학이나 전형 방식을 고려해보시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.8430366516113281</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了确定您是否符合东义大学化工环境学部(化学环境工程)的一般学生招生资格，我们需要考虑以下几个因素：
+1. **高考成绩**：您的高考总分为392分。根据表格中的信息，不同专业的录取标准可能有所不同。
+2. **科目等级要求**：
+   - 一般情况下，理工科专业需要国文、数学、英语和理科综合（如物理、化学等）的等级。
+   - 具体到化工环境学部，通常会要求以下科目达到一定等级：
+     - 国语：A或B
+     - 数学：A或B
+     - 英语：A或B
+     - 理科综合（如物理、化学）：A或B
+3. **总分和单科成绩**：您需要提供具体的科目等级，以便我们进一步判断是否满足该专业的录取要求。
+4. **其他因素**：
+   - 除了高考成绩外，还需要考虑学生综合素质评价等其他因素。
+   - 不同专业可能有不同的录取标准，请具体查看相关专业的招生简章或咨询学校招生办公室。
+综上所述，仅凭总分392无法直接判断是否符合化工环境学部的录取要求。建议您提供具体的科目等级信息，并参考该专业的详细招生要求进行判断。如有疑问，可以直接联系东义大学招生办公室获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.4058454632759094</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 화학환경공학과에 지원하시려면, 수능(일반학생전형)을 통해 지원할 수 있습니다.
+현재 제공된 정보로는 다음과 같은 점들을 고려해야 합니다:
+1. **모집단위**: 화학환경공학과는 "화학공학과, 환경공학과"라는 모집단위에 속합니다.
+2. **전형 유형**: 화학환경공학과는 일반적으로 실기/실적 위주 전형으로 모집됩니다 (예: 가군 실기/실적(일반학생전형)).
+3. **성적 반영방법**:
+   - 수능 성적이 반영되며, 이 경우 수능 최저 기준이 없습니다.
+   - 실기 성적이 반영되며, 이 경우 실기 점수가 중요합니다.
+당신의 현재 정보는 다음과 같습니다:
+- **수능 성적**: 4.25 (가정)
+- **전형 유형**: 일반학생전형
+**추천 사항:**
+1. **수능 성적 확인**: 실제 수능 성적을 다시 한번 확인해주세요.
+2. **모집단위 확인**: 화학환경공학과의 정확한 모집단위를 확인하세요 (화학공학과, 환경공학과).
+3. **실기 점수 준비**: 실기 점수가 중요하므로 해당 과목을 잘 준비해보세요.
+4. **전형 유형 확인**: 화학환경공학과의 정확한 전형 유형을 확인하고, 그에 맞는 준비를 하세요.
+**결론:**
+당장은 수능 성적 4.25로 일반학생전형을 통해 지원할 수 있습니다. 하지만 실기 점수도 중요하므로, 해당 과목의 실기를 잘 준비하는 것이 좋습니다. 추가 정보가 필요하시면 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)를 참조해보세요.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.6792341470718384</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2의 수능 등급은 상당히 높은 점수입니다. 그러나 합격 여부는 여러 요소에 따라 결정되므로 단순히 수능 성적만으로 판단하기 어렵습니다.
+영화학과의 경우, 전형요소 중 학생부교과와 면접 등이 중요한 역할을 합니다. 따라서 다음과 같은 점들을 고려해보세요:
+1. **학생부 교과성적**: 수능 외에도 학생부에서 좋은 성적이 나왔다면 이는 긍정적인 요인입니다.
+2. **면접 성적**: 영화학과에서는 창의성, 표현력 등이 중요하므로 면접에서도 좋은 평가를 받았으면 좋습니다.
+3. **추천서 및 자기소개서**: 추천서나 자기소개서에서 자신의 열정과 계획을 잘 전달했는지 확인해보세요.
+4. **전형요소 반영비율**: 영화학과의 경우, 학생부교과와 면접 등이 높은 비중을 차지하므로 이 부분에 대한 준비가 중요합니다.
+5. **경쟁률**: 현재의 경쟁률과 지원자들의 수능 성적 분포를 고려해보세요. 만약 경쟁률이 높다면, 4.2의 등급으로도 합격 가능성이 있지만 낮다면 더 확실한 가능성은 있습니다.
+6. **대학별 정시 모집인원**: 각 단과대와 모집단위별로 정시 모집인원이 다르므로 이 점도 고려해보세요.
+결론적으로, 수능 성적 4.2는 좋은 기반이지만, 합격 여부는 전형요소의 종합적인 평가에 따라 결정됩니다. 따라서 면접 준비와 자기소개서 작성 등 다른 요소들도 철저히 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.6506705284118652</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是面试流程的韩文描述：
+```
+면접절차 / ①대기실 입실 ⇨ ②신분 확인 ⇨ ③고사장 앞 이동 ⇨ ④고사장 입실 ⇨ ⑤지원동기 및 학업계획 발표 ⇨ ⑥학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 ⇨ ⑦기타 질의응답(제출서류 진위 여부 등) ⇨ ⑧퇴실 /
+```
+逐句解释如下：
+1. ①候考室入内
+2. ②身份确认
+3. ③前往考场前移动
+4. ④进入考场
+5. ⑤介绍动机和学业计划
+6. ⑥关于学业能力和专业适应性的共同问题发言及问答
+7. ⑦其他问题回答（提交文件的真实性等）
+8. ⑧退场</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.7913393378257751</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.7832286763191223</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.7667644339799881</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.7087935304641724</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.7749965551495552</v>
+      <c r="D305" t="n">
+        <v>0.7529288802544276</v>
       </c>
     </row>
   </sheetData>
